--- a/Assets/GameProject/04 Scripts/SO/RTSDB.xlsx
+++ b/Assets/GameProject/04 Scripts/SO/RTSDB.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-1\UnityProject\EraofConquest\Assets\GameProject\04 Scripts\SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68319D-B3B4-4488-92A4-D22E82C723AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41365D86-9869-484A-A870-78D19764A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1635" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="1635" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDB" sheetId="1" r:id="rId1"/>
     <sheet name="BuildingDB" sheetId="2" r:id="rId2"/>
     <sheet name="DialogDB" sheetId="3" r:id="rId3"/>
+    <sheet name="PlayerDB" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>unitid</t>
   </si>
@@ -221,6 +222,44 @@
   </si>
   <si>
     <t>휠버튼을 누른상태에선 화면 회전 휠스크롤은 줌인아웃을 담당합니다.</t>
+  </si>
+  <si>
+    <t>maxUnit</t>
+  </si>
+  <si>
+    <t>curUnit</t>
+  </si>
+  <si>
+    <t>maxBuilding</t>
+  </si>
+  <si>
+    <t>curBuilding</t>
+  </si>
+  <si>
+    <t>up_MeleeUnit</t>
+  </si>
+  <si>
+    <t>up_RangeUnit</t>
+  </si>
+  <si>
+    <t>up_MagicUnit</t>
+  </si>
+  <si>
+    <t>up_CavalryUnit</t>
+  </si>
+  <si>
+    <t>up_MaxUnit</t>
+  </si>
+  <si>
+    <t>up_MaxBuilding</t>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1475,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
@@ -1610,4 +1649,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1307BA2F-7089-4C1C-B390-7412130327D3}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/GameProject/04 Scripts/SO/RTSDB.xlsx
+++ b/Assets/GameProject/04 Scripts/SO/RTSDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-1\UnityProject\EraofConquest\Assets\GameProject\04 Scripts\SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41365D86-9869-484A-A870-78D19764A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64889B-4A93-49E3-8C8F-B69F3E5FC447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1635" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDB" sheetId="1" r:id="rId1"/>
@@ -103,42 +103,6 @@
     <t>dialog</t>
   </si>
   <si>
-    <t>게임 튜토리얼을 시작하겠습니다.</t>
-  </si>
-  <si>
-    <t>간단한 RTS게임으로 기본적인 조작법은 다음과 같습니다.</t>
-  </si>
-  <si>
-    <t>다음은 간단한 게임 플로우에 관련한 설명입니다.</t>
-  </si>
-  <si>
-    <t>유닛들은 건물들에서 일정 주기마다 생산되며 자동적으로 적유닛을 탐색 공격합니다.</t>
-  </si>
-  <si>
-    <t>마우스 좌클릭을 통해 유닛들을 선택할수 있고 우클릭으로 유닛의 이동지점을 선택해봅시다.</t>
-  </si>
-  <si>
-    <t>다음은 건물들의 유형입니다.</t>
-  </si>
-  <si>
-    <t>유닛을 소환하는 병영, 수입을 늘려주는 농장,적유닛을 방해할수있는 장애물 3가지 유형이 존재합니다.</t>
-  </si>
-  <si>
-    <t>해당건물들은 아래 건축탭에서 건물을 선택한뒤 건설하고 싶은 공간에 좌클릭을 하면 건설이 이루어집니다.</t>
-  </si>
-  <si>
-    <t>게임에서 진행에 사용되는 돈은 주기적으로 건물에서 들어옵니다.</t>
-  </si>
-  <si>
-    <t>획득한 골드를 소모해 유닛의 업그레이드,건물과 유닛의 최대수량을 늘리는데 사용할수있습니다.</t>
-  </si>
-  <si>
-    <t>시작할때 가지고있는 건물이 파괴되거나 상대방의 건물을 파괴하면 승리합니다.</t>
-  </si>
-  <si>
-    <t>간단한 설명이 종료 되었으니 본 스테이지로 넘어가겠습니다.</t>
-  </si>
-  <si>
     <t>base1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -218,12 +182,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WASD키 및 마우스 우클릭으로 화면이동</t>
-  </si>
-  <si>
-    <t>휠버튼을 누른상태에선 화면 회전 휠스크롤은 줌인아웃을 담당합니다.</t>
-  </si>
-  <si>
     <t>maxUnit</t>
   </si>
   <si>
@@ -260,13 +218,55 @@
   <si>
     <t>playerID</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관님 어서오세요 지휘관님께 설명을 도와드릴 보좌관입니다.</t>
+  </si>
+  <si>
+    <t>먼저 전황을 둘러볼수있는 기본적 이동 설명입니다.</t>
+  </si>
+  <si>
+    <t>WASD키 및 마우스 우클릭을 누른상태로 드래그하면 화면 이동이 가능합니다.</t>
+  </si>
+  <si>
+    <t>휠버튼을 누른상태에선 화면 회전 및 휠스크롤로 줌인 아웃을 할수있습니다.</t>
+  </si>
+  <si>
+    <t>한번 간단한 조작을 해보세요</t>
+  </si>
+  <si>
+    <t>다음으론 간단한 진행 설명을 해드리겠습니다.</t>
+  </si>
+  <si>
+    <t>저희가 전투에서 사용하는 시설물들 입니다.</t>
+  </si>
+  <si>
+    <t>기본적으로 저희가 지켜야하는 성과 생산 건물 병영과 방어 건물로 나뉘어 집니다</t>
+  </si>
+  <si>
+    <t>해당 건물들은 하단 건축탭에서 건물을 선택한뒤 건설하고 싶은 공간에 좌클릭을 하면 건설이 이루어집니다.</t>
+  </si>
+  <si>
+    <t>건설과 같은 행동들에 들어가는 돈들은 매 주기마다 생산건물에서 수입이 들어옵니다</t>
+  </si>
+  <si>
+    <t>한번 건설을 해보시죠</t>
+  </si>
+  <si>
+    <t>획득한 골드를 소모해 유닛의 업그레이드를 진행하거나 최대 유닛,건물 수를 늘릴 수 있습니다.</t>
+  </si>
+  <si>
+    <t>전투에서 저희의 성을 지키고 상대방의 성을 부수면 게임을 클리어합니다.</t>
+  </si>
+  <si>
+    <t>간단한 설명이 종료 되었으니 본스테이지로 넘어 가겠습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -302,13 +302,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,12 +320,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -361,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,9 +366,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1085,19 +1071,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1105,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -1131,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
@@ -1157,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
         <v>1000</v>
@@ -1183,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>150</v>
@@ -1209,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>200</v>
@@ -1235,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
         <v>200</v>
@@ -1261,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>400</v>
@@ -1287,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
         <v>200</v>
@@ -1313,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>300</v>
@@ -1339,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
         <v>400</v>
@@ -1365,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>100</v>
@@ -1391,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3">
         <v>300</v>
@@ -1417,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>100</v>
@@ -1443,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>300</v>
@@ -1469,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>300</v>
@@ -1514,8 +1500,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1533,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1549,15 +1535,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1565,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1573,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1581,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1589,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1613,31 +1599,31 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1655,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1307BA2F-7089-4C1C-B390-7412130327D3}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1663,40 +1649,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1854,5 +1840,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>